--- a/data/trans_camb/P73-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P73-Estudios-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,63; 3,45</t>
+          <t>-4,58; 3,52</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-9,12; -0,54</t>
+          <t>-9,21; -0,32</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-74,74; -69,32</t>
+          <t>-74,51; -68,89</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 5,31</t>
+          <t>-1,69; 5,85</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-6,45; 2,64</t>
+          <t>-6,09; 2,53</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-65,0; -59,88</t>
+          <t>-65,11; -59,72</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 3,89</t>
+          <t>-1,94; 3,79</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-6,3; 0,2</t>
+          <t>-6,53; -0,31</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-68,4; -64,54</t>
+          <t>-68,56; -64,69</t>
         </is>
       </c>
     </row>
@@ -791,12 +791,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-6,27; 4,88</t>
+          <t>-6,21; 4,99</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-12,59; -0,84</t>
+          <t>-12,59; -0,4</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -806,12 +806,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,44; 8,66</t>
+          <t>-2,59; 9,58</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-9,96; 4,29</t>
+          <t>-9,45; 4,26</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -821,12 +821,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 5,92</t>
+          <t>-2,88; 5,82</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-9,24; 0,17</t>
+          <t>-9,64; -0,4</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 4,34</t>
+          <t>-2,35; 4,24</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,18; 4,27</t>
+          <t>-2,67; 4,22</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-63,69; -58,95</t>
+          <t>-63,78; -58,71</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 5,16</t>
+          <t>-1,19; 5,38</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,73; 0,72</t>
+          <t>-5,56; 0,93</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-65,74; -60,77</t>
+          <t>-65,77; -60,75</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 3,98</t>
+          <t>-0,82; 3,87</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,96; 1,74</t>
+          <t>-3,0; 1,66</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-63,96; -60,51</t>
+          <t>-63,9; -60,52</t>
         </is>
       </c>
     </row>
@@ -1007,12 +1007,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,47; 7,29</t>
+          <t>-3,77; 7,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,45; 7,17</t>
+          <t>-4,18; 7,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1022,12 +1022,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 8,4</t>
+          <t>-1,8; 8,72</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-8,94; 1,19</t>
+          <t>-8,6; 1,5</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1037,12 +1037,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 6,54</t>
+          <t>-1,31; 6,34</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-4,68; 2,87</t>
+          <t>-4,68; 2,73</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-8,96; 4,25</t>
+          <t>-9,1; 3,31</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-8,66; 3,41</t>
+          <t>-8,45; 3,17</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-70,38; -61,7</t>
+          <t>-70,15; -61,57</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 10,98</t>
+          <t>-1,91; 10,57</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-7,12; 5,29</t>
+          <t>-7,06; 5,8</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-65,04; -56,35</t>
+          <t>-64,9; -55,65</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,34; 5,84</t>
+          <t>-3,62; 5,53</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-5,98; 2,47</t>
+          <t>-6,39; 2,31</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-66,45; -60,46</t>
+          <t>-66,68; -60,45</t>
         </is>
       </c>
     </row>
@@ -1223,12 +1223,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-13,0; 6,79</t>
+          <t>-13,09; 5,43</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-12,59; 5,56</t>
+          <t>-12,48; 5,12</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1238,12 +1238,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-3,45; 18,92</t>
+          <t>-2,97; 18,51</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-11,12; 9,47</t>
+          <t>-11,07; 10,0</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1253,12 +1253,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-5,03; 9,55</t>
+          <t>-5,48; 9,02</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-9,13; 4,08</t>
+          <t>-9,69; 3,81</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 2,05</t>
+          <t>-2,52; 2,22</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,14; 0,74</t>
+          <t>-4,03; 0,64</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-67,18; -63,71</t>
+          <t>-67,03; -63,67</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 4,76</t>
+          <t>0,08; 4,56</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,59; 0,16</t>
+          <t>-4,41; 0,25</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-64,16; -60,78</t>
+          <t>-64,15; -60,91</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 2,69</t>
+          <t>-0,64; 2,7</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-3,58; -0,32</t>
+          <t>-3,69; -0,34</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-65,11; -62,77</t>
+          <t>-65,1; -62,9</t>
         </is>
       </c>
     </row>
@@ -1439,12 +1439,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-4,15; 3,18</t>
+          <t>-3,8; 3,49</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-6,25; 1,1</t>
+          <t>-6,02; 1,04</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1454,12 +1454,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 7,83</t>
+          <t>0,14; 7,44</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-7,17; 0,26</t>
+          <t>-6,95; 0,41</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1469,12 +1469,12 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 4,28</t>
+          <t>-0,99; 4,28</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-5,51; -0,48</t>
+          <t>-5,69; -0,52</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">

--- a/data/trans_camb/P73-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P73-Estudios-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,58; 3,52</t>
+          <t>-4,51; 3,72</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-9,21; -0,32</t>
+          <t>-9,13; -0,28</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-74,51; -68,89</t>
+          <t>-74,36; -68,96</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,69; 5,85</t>
+          <t>-1,68; 6,12</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-6,09; 2,53</t>
+          <t>-6,14; 2,15</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-65,11; -59,72</t>
+          <t>-65,18; -59,8</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 3,79</t>
+          <t>-1,87; 3,5</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-6,53; -0,31</t>
+          <t>-6,24; -0,08</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-68,56; -64,69</t>
+          <t>-68,44; -64,42</t>
         </is>
       </c>
     </row>
@@ -791,12 +791,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-6,21; 4,99</t>
+          <t>-6,12; 5,31</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-12,59; -0,4</t>
+          <t>-12,34; -0,27</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -806,12 +806,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 9,58</t>
+          <t>-2,64; 10,07</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-9,45; 4,26</t>
+          <t>-9,67; 3,51</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -821,12 +821,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-2,88; 5,82</t>
+          <t>-2,79; 5,36</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-9,64; -0,4</t>
+          <t>-9,24; -0,1</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,35; 4,24</t>
+          <t>-2,37; 4,09</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,67; 4,22</t>
+          <t>-2,08; 4,38</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-63,78; -58,71</t>
+          <t>-63,63; -58,97</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 5,38</t>
+          <t>-0,96; 5,48</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,56; 0,93</t>
+          <t>-5,9; 0,88</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-65,77; -60,75</t>
+          <t>-65,78; -60,88</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 3,87</t>
+          <t>-0,9; 3,83</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,0; 1,66</t>
+          <t>-2,89; 1,8</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-63,9; -60,52</t>
+          <t>-63,99; -60,49</t>
         </is>
       </c>
     </row>
@@ -1007,12 +1007,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,77; 7,0</t>
+          <t>-3,74; 6,83</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,18; 7,0</t>
+          <t>-3,3; 7,34</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1022,12 +1022,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 8,72</t>
+          <t>-1,5; 8,98</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-8,6; 1,5</t>
+          <t>-9,14; 1,44</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1037,12 +1037,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 6,34</t>
+          <t>-1,42; 6,3</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-4,68; 2,73</t>
+          <t>-4,58; 2,99</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-9,1; 3,31</t>
+          <t>-8,08; 4,25</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-8,45; 3,17</t>
+          <t>-8,6; 3,16</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-70,15; -61,57</t>
+          <t>-69,86; -61,56</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 10,57</t>
+          <t>-1,71; 10,68</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-7,06; 5,8</t>
+          <t>-7,3; 4,91</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-64,9; -55,65</t>
+          <t>-65,77; -56,36</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,62; 5,53</t>
+          <t>-3,91; 5,13</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-6,39; 2,31</t>
+          <t>-6,04; 2,9</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-66,68; -60,45</t>
+          <t>-66,48; -60,09</t>
         </is>
       </c>
     </row>
@@ -1223,12 +1223,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-13,09; 5,43</t>
+          <t>-11,78; 6,7</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-12,48; 5,12</t>
+          <t>-12,38; 4,97</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1238,12 +1238,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 18,51</t>
+          <t>-2,73; 18,81</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-11,07; 10,0</t>
+          <t>-11,3; 8,37</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1253,12 +1253,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-5,48; 9,02</t>
+          <t>-5,78; 8,41</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-9,69; 3,81</t>
+          <t>-9,16; 4,71</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,52; 2,22</t>
+          <t>-2,82; 1,94</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,03; 0,64</t>
+          <t>-4,29; 0,5</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-67,03; -63,67</t>
+          <t>-66,96; -63,72</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,08; 4,56</t>
+          <t>0,13; 4,69</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,41; 0,25</t>
+          <t>-4,42; 0,3</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-64,15; -60,91</t>
+          <t>-64,25; -60,91</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 2,7</t>
+          <t>-0,65; 2,61</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-3,69; -0,34</t>
+          <t>-3,68; -0,2</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-65,1; -62,9</t>
+          <t>-65,07; -62,77</t>
         </is>
       </c>
     </row>
@@ -1439,12 +1439,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-3,8; 3,49</t>
+          <t>-4,25; 2,98</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-6,02; 1,04</t>
+          <t>-6,38; 0,78</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1454,12 +1454,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,14; 7,44</t>
+          <t>0,22; 7,6</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-6,95; 0,41</t>
+          <t>-6,91; 0,47</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1469,12 +1469,12 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 4,28</t>
+          <t>-0,99; 4,15</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-5,69; -0,52</t>
+          <t>-5,69; -0,33</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">

--- a/data/trans_camb/P73-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P73-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -63,13 +63,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -504,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,9 +516,6 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
-    <col width="14" customWidth="1" min="9" max="9"/>
-    <col width="14" customWidth="1" min="10" max="10"/>
-    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -541,21 +531,18 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +559,22 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2023/2007</t>
+          <t>2012/2007</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>2016/2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>2012/2007</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>2016/2007</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>2023/2007</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>2012/2007</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>2016/2007</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>2023/2007</t>
         </is>
       </c>
     </row>
@@ -615,9 +587,6 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
-      <c r="I3" s="2" t="n"/>
-      <c r="J3" s="2" t="n"/>
-      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -642,37 +611,22 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-71,78</t>
+          <t>1,99</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,99</t>
+          <t>-2,06</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-2,06</t>
+          <t>0,81</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-62,49</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>0,81</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
           <t>-3,27</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>-66,57</t>
         </is>
       </c>
     </row>
@@ -685,47 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,51; 3,72</t>
+          <t>-4,63; 3,45</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-9,13; -0,28</t>
+          <t>-9,12; -0,54</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-74,36; -68,96</t>
+          <t>-1,53; 5,31</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 6,12</t>
+          <t>-6,45; 2,64</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-6,14; 2,15</t>
+          <t>-1,71; 3,89</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-65,18; -59,8</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-1,87; 3,5</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-6,24; -0,08</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-68,44; -64,42</t>
+          <t>-6,3; 0,2</t>
         </is>
       </c>
     </row>
@@ -748,37 +687,22 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>3,18%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,18%</t>
+          <t>-3,3%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-3,3%</t>
+          <t>1,21%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>1,21%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
           <t>-4,91%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -791,47 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-6,12; 5,31</t>
+          <t>-6,27; 4,88</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-12,34; -0,27</t>
+          <t>-12,59; -0,84</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,44; 8,66</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 10,07</t>
+          <t>-9,96; 4,29</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-9,67; 3,51</t>
+          <t>-2,53; 5,92</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-2,79; 5,36</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-9,24; -0,1</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>-9,24; 0,17</t>
         </is>
       </c>
     </row>
@@ -858,37 +767,22 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-61,35</t>
+          <t>2,05</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,05</t>
+          <t>-2,51</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-2,51</t>
+          <t>1,43</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-63,25</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>1,43</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
           <t>-0,68</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>-62,27</t>
         </is>
       </c>
     </row>
@@ -901,47 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,37; 4,09</t>
+          <t>-2,22; 4,34</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 4,38</t>
+          <t>-2,18; 4,27</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-63,63; -58,97</t>
+          <t>-1,37; 5,16</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 5,48</t>
+          <t>-5,73; 0,72</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,9; 0,88</t>
+          <t>-1,04; 3,98</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-65,78; -60,88</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-0,9; 3,83</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-2,89; 1,8</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-63,99; -60,49</t>
+          <t>-2,96; 1,74</t>
         </is>
       </c>
     </row>
@@ -964,37 +843,22 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>3,24%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,24%</t>
+          <t>-3,97%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-3,97%</t>
+          <t>2,3%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>2,3%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
           <t>-1,09%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,74; 6,83</t>
+          <t>-3,47; 7,29</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,3; 7,34</t>
+          <t>-3,45; 7,17</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,11; 8,4</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 8,98</t>
+          <t>-8,94; 1,19</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-9,14; 1,44</t>
+          <t>-1,64; 6,54</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-1,42; 6,3</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-4,58; 2,99</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>-4,68; 2,87</t>
         </is>
       </c>
     </row>
@@ -1074,37 +923,22 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-65,91</t>
+          <t>4,59</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>4,59</t>
+          <t>-0,79</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,79</t>
+          <t>0,86</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-60,52</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>0,86</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
           <t>-1,88</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>-63,41</t>
         </is>
       </c>
     </row>
@@ -1117,47 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-8,08; 4,25</t>
+          <t>-8,96; 4,25</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-8,6; 3,16</t>
+          <t>-8,66; 3,41</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-69,86; -61,56</t>
+          <t>-2,14; 10,98</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 10,68</t>
+          <t>-7,12; 5,29</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-7,3; 4,91</t>
+          <t>-3,34; 5,84</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-65,77; -56,36</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-3,91; 5,13</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-6,04; 2,9</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>-66,48; -60,09</t>
+          <t>-5,98; 2,47</t>
         </is>
       </c>
     </row>
@@ -1180,37 +999,22 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>7,58%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>7,58%</t>
+          <t>-1,31%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-1,31%</t>
+          <t>1,36%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>1,36%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
           <t>-2,97%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-11,78; 6,7</t>
+          <t>-13,0; 6,79</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-12,38; 4,97</t>
+          <t>-12,59; 5,56</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,45; 18,92</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 18,81</t>
+          <t>-11,12; 9,47</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-11,3; 8,37</t>
+          <t>-5,03; 9,55</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-5,78; 8,41</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-9,16; 4,71</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>-9,13; 4,08</t>
         </is>
       </c>
     </row>
@@ -1290,37 +1079,22 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-65,41</t>
+          <t>2,4</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>2,4</t>
+          <t>-2,08</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-2,08</t>
+          <t>1,04</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-62,57</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>1,04</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
           <t>-1,95</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>-63,96</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,82; 1,94</t>
+          <t>-2,75; 2,05</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,29; 0,5</t>
+          <t>-4,14; 0,74</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-66,96; -63,72</t>
+          <t>-0,22; 4,76</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,13; 4,69</t>
+          <t>-4,59; 0,16</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,42; 0,3</t>
+          <t>-0,62; 2,69</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-64,25; -60,91</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>-0,65; 2,61</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>-3,68; -0,2</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>-65,07; -62,77</t>
+          <t>-3,58; -0,32</t>
         </is>
       </c>
     </row>
@@ -1396,37 +1155,22 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>3,83%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>3,83%</t>
+          <t>-3,32%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-3,32%</t>
+          <t>1,62%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="I18" s="2" t="inlineStr">
-        <is>
-          <t>1,62%</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
           <t>-3,04%</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-4,25; 2,98</t>
+          <t>-4,15; 3,18</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-6,38; 0,78</t>
+          <t>-6,25; 1,1</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,29; 7,83</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,22; 7,6</t>
+          <t>-7,17; 0,26</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-6,91; 0,47</t>
+          <t>-0,94; 4,28</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I19" s="2" t="inlineStr">
-        <is>
-          <t>-0,99; 4,15</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>-5,69; -0,33</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>-5,51; -0,48</t>
         </is>
       </c>
     </row>
@@ -1493,11 +1222,11 @@
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>

--- a/data/trans_camb/P73-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P73-Estudios-trans_camb.xlsx
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,63; 3,45</t>
+          <t>-4,46; 3,63</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-9,12; -0,54</t>
+          <t>-8,75; -0,46</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 5,31</t>
+          <t>-1,86; 5,46</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-6,45; 2,64</t>
+          <t>-6,3; 2,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 3,89</t>
+          <t>-2,27; 3,7</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-6,3; 0,2</t>
+          <t>-6,42; -0,26</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-6,27; 4,88</t>
+          <t>-6,03; 5,23</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-12,59; -0,84</t>
+          <t>-11,97; -0,69</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,44; 8,66</t>
+          <t>-2,86; 8,98</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-9,96; 4,29</t>
+          <t>-9,88; 3,37</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 5,92</t>
+          <t>-3,35; 5,68</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-9,24; 0,17</t>
+          <t>-9,48; -0,38</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 4,34</t>
+          <t>-2,39; 3,97</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,18; 4,27</t>
+          <t>-2,33; 4,16</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 5,16</t>
+          <t>-1,11; 5,73</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,73; 0,72</t>
+          <t>-5,95; 0,79</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 3,98</t>
+          <t>-0,8; 3,83</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,96; 1,74</t>
+          <t>-2,96; 1,82</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,47; 7,29</t>
+          <t>-3,83; 6,67</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,45; 7,17</t>
+          <t>-3,68; 6,94</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 8,4</t>
+          <t>-1,65; 9,46</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-8,94; 1,19</t>
+          <t>-9,14; 1,27</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 6,54</t>
+          <t>-1,28; 6,24</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-4,68; 2,87</t>
+          <t>-4,63; 2,99</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-8,96; 4,25</t>
+          <t>-8,68; 4,13</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-8,66; 3,41</t>
+          <t>-8,24; 3,57</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 10,98</t>
+          <t>-2,25; 10,99</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,12; 5,29</t>
+          <t>-7,31; 5,79</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,34; 5,84</t>
+          <t>-3,43; 5,56</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-5,98; 2,47</t>
+          <t>-6,28; 2,43</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-13,0; 6,79</t>
+          <t>-12,78; 6,45</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-12,59; 5,56</t>
+          <t>-12,28; 5,73</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-3,45; 18,92</t>
+          <t>-3,35; 19,35</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-11,12; 9,47</t>
+          <t>-11,44; 10,25</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-5,03; 9,55</t>
+          <t>-5,2; 8,93</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-9,13; 4,08</t>
+          <t>-9,6; 3,96</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 2,05</t>
+          <t>-2,5; 2,11</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,14; 0,74</t>
+          <t>-4,0; 0,88</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 4,76</t>
+          <t>0,07; 4,71</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,59; 0,16</t>
+          <t>-4,56; 0,3</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 2,69</t>
+          <t>-0,63; 2,61</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,58; -0,32</t>
+          <t>-3,5; -0,19</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-4,15; 3,18</t>
+          <t>-3,78; 3,29</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-6,25; 1,1</t>
+          <t>-6,05; 1,38</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 7,83</t>
+          <t>0,08; 7,69</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-7,17; 0,26</t>
+          <t>-7,1; 0,48</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 4,28</t>
+          <t>-0,98; 4,13</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-5,51; -0,48</t>
+          <t>-5,44; -0,32</t>
         </is>
       </c>
     </row>
